--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="createCity" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,6 +45,42 @@
   </si>
   <si>
     <t xml:space="preserve">mandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmedabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.121.25.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/rest/system/createCity</t>
   </si>
 </sst>
 </file>
@@ -132,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,8 +178,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -164,23 +209,23 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -188,7 +233,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -199,7 +244,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -210,7 +255,7 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -221,7 +266,7 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -232,7 +277,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -248,4 +293,74 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">payload</t>
   </si>
   <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahmedabad</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">/rest/system/createCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,18 +306,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,25 +337,31 @@
       <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCode</t>
   </si>
   <si>
     <t xml:space="preserve">Ahmedabad</t>
@@ -220,9 +223,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.2295918367347"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -306,16 +306,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,28 +344,34 @@
       <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="createCity" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="createCustomer" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="createCustomerAccount" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="createCity" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="dissociateDiscount" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customerManagementApi/customerAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -63,15 +79,6 @@
     <t xml:space="preserve">ipAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ahmedabad</t>
   </si>
   <si>
@@ -87,34 +94,13 @@
     <t xml:space="preserve">10.121.25.11</t>
   </si>
   <si>
-    <t xml:space="preserve">/rest/system/createCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.fullName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.billingArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.tenantId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.customerCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.staffId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.staffName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.createDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerAccountDetail.contactMedium.type</t>
+    <t xml:space="preserve">system/createCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customerManagementApi/billingAccount/{accountNumber}/dissociateDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
   </si>
 </sst>
 </file>
@@ -124,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,12 +146,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,9 +189,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -226,14 +210,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -247,6 +223,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -263,66 +289,66 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>14</v>
@@ -339,7 +365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -347,67 +373,67 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>200</v>
@@ -424,58 +450,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
+      <c r="C2" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="createCustomerAccount" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t xml:space="preserve">payload</t>
   </si>
@@ -79,6 +79,12 @@
     <t xml:space="preserve">ipAddress</t>
   </si>
   <si>
+    <t xml:space="preserve">responseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responseMessage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahmedabad</t>
   </si>
   <si>
@@ -95,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">system/createCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City name already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createCity.arg0.ipAddress Invalid IP Address.</t>
   </si>
   <si>
     <t xml:space="preserve">customerManagementApi/billingAccount/{accountNumber}/dissociateDiscount</t>
@@ -229,14 +241,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,7 +299,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,21 +384,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,31 +425,73 @@
       <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -458,13 +513,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,10 +537,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>200</v>

--- a/src/test/resources/data/sample.xlsx
+++ b/src/test/resources/data/sample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t xml:space="preserve">payload</t>
   </si>
@@ -34,12 +34,24 @@
     <t xml:space="preserve">statusCode</t>
   </si>
   <si>
+    <t xml:space="preserve">responseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responseMessage</t>
+  </si>
+  <si>
     <t xml:space="preserve">customerManagementApi/customerAccount</t>
   </si>
   <si>
     <t xml:space="preserve">post</t>
   </si>
   <si>
+    <t xml:space="preserve">City name already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createCity.arg0.ipAddress Invalid IP Address.</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -79,12 +91,6 @@
     <t xml:space="preserve">ipAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">responseCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">responseMessage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ahmedabad</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">system/createCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City name already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createCity.arg0.ipAddress Invalid IP Address.</t>
   </si>
   <si>
     <t xml:space="preserve">customerManagementApi/billingAccount/{accountNumber}/dissociateDiscount</t>
@@ -239,18 +239,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,16 +265,36 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -298,19 +320,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,7 +337,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10</v>
@@ -329,7 +348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -340,7 +359,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
@@ -351,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>16</v>
@@ -362,7 +381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>14</v>
@@ -387,34 +406,37 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -426,33 +448,33 @@
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>200</v>
@@ -461,28 +483,28 @@
         <v>-1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>400</v>
@@ -491,7 +513,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -510,18 +532,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,6 +558,12 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -544,6 +574,20 @@
       </c>
       <c r="C2" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
